--- a/Rabbit/Position_Related_Plots/Rabbit_Vitreous_Humor_Results_Posterior_Vitreous.xlsx
+++ b/Rabbit/Position_Related_Plots/Rabbit_Vitreous_Humor_Results_Posterior_Vitreous.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubuffalo-my.sharepoint.com/personal/echacinr_buffalo_edu/Documents/Desktop/Github Jabias project/Rabbit/Position_Related_Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="14_{E56D3440-054A-45F7-AC12-664192BD151B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88C50B2B-D5C4-4E31-8752-CFBC5525636F}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="14_{E56D3440-054A-45F7-AC12-664192BD151B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10B1CC81-67B8-4E2D-A4D4-3073B3F9124A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{26FFA8E2-5374-4B2B-9A88-9D55D5004369}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" activeTab="2" xr2:uid="{26FFA8E2-5374-4B2B-9A88-9D55D5004369}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Vitreous concentration" sheetId="2" r:id="rId1"/>
+    <sheet name="Half-lives" sheetId="3" r:id="rId2"/>
+    <sheet name="Duration of action" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="16">
   <si>
     <t>Experimental data</t>
   </si>
@@ -83,6 +84,9 @@
   <si>
     <t>N/A</t>
   </si>
+  <si>
+    <t>half-life (d)</t>
+  </si>
 </sst>
 </file>
 
@@ -97,7 +101,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,6 +111,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -123,7 +133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -133,6 +143,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,14 +460,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{596589CB-4D4B-4B0D-B9B7-0073155E1CCB}">
   <dimension ref="A1:N95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C71"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N1" sqref="A1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2934,16 +2953,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A38:B38"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A38:B38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2954,7 +2973,7 @@
   <dimension ref="A1:S75"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D71"/>
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3027,7 +3046,7 @@
         <v>6</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
         <v>5</v>
@@ -3036,7 +3055,7 @@
         <v>6</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M4" t="s">
         <v>5</v>
@@ -3045,7 +3064,7 @@
         <v>6</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q4" t="s">
         <v>5</v>
@@ -3054,7 +3073,7 @@
         <v>6</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -5146,16 +5165,2528 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:B3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="A12:B12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F716561-22CD-490E-8C83-17D4BDA565FB}">
+  <dimension ref="A1:N95"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11:N11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="J3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="M3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.92903225806451795</v>
+      </c>
+      <c r="B5">
+        <v>414.93257202146998</v>
+      </c>
+      <c r="C5">
+        <v>80.180000000000007</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>859.5336176889133</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>859.53103404036096</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>859.53361796969182</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>859.53103128525572</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2.9419354838709699</v>
+      </c>
+      <c r="B6">
+        <v>328.74104593189298</v>
+      </c>
+      <c r="C6">
+        <v>44.86</v>
+      </c>
+      <c r="D6">
+        <v>0.5</v>
+      </c>
+      <c r="E6">
+        <v>824.5968022574624</v>
+      </c>
+      <c r="G6">
+        <v>0.5</v>
+      </c>
+      <c r="H6">
+        <v>321.49942138103489</v>
+      </c>
+      <c r="J6">
+        <v>0.5</v>
+      </c>
+      <c r="K6">
+        <v>855.18939224244696</v>
+      </c>
+      <c r="M6">
+        <v>0.5</v>
+      </c>
+      <c r="N6">
+        <v>338.24775957273619</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7.8967741935483797</v>
+      </c>
+      <c r="B7">
+        <v>129.52677443553199</v>
+      </c>
+      <c r="C7">
+        <v>25.43</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>743.12901612232235</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>126.93524229314423</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>820.63169178953785</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>140.47908537804543</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>14.967741935483801</v>
+      </c>
+      <c r="B8">
+        <v>48.461098954332002</v>
+      </c>
+      <c r="C8">
+        <v>4.91</v>
+      </c>
+      <c r="D8">
+        <v>1.5</v>
+      </c>
+      <c r="E8">
+        <v>648.27878887115696</v>
+      </c>
+      <c r="G8">
+        <v>1.5</v>
+      </c>
+      <c r="H8">
+        <v>50.593573061513204</v>
+      </c>
+      <c r="J8">
+        <v>1.5</v>
+      </c>
+      <c r="K8">
+        <v>762.31556149474613</v>
+      </c>
+      <c r="M8">
+        <v>1.5</v>
+      </c>
+      <c r="N8">
+        <v>57.785768745690191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>29.109677419354799</v>
+      </c>
+      <c r="B9">
+        <v>4.6017322765137996</v>
+      </c>
+      <c r="C9">
+        <v>0.52</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>557.54468917432848</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>20.083316964828942</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>696.13913710989607</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>23.48528522666351</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>2.5</v>
+      </c>
+      <c r="E10">
+        <v>476.41878372589144</v>
+      </c>
+      <c r="G10">
+        <v>2.5</v>
+      </c>
+      <c r="H10">
+        <v>7.956160941380678</v>
+      </c>
+      <c r="J10">
+        <v>2.5</v>
+      </c>
+      <c r="K10">
+        <v>630.32793412836702</v>
+      </c>
+      <c r="M10">
+        <v>2.5</v>
+      </c>
+      <c r="N10">
+        <v>9.5048678466822984</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>405.91622604570836</v>
+      </c>
+      <c r="G11" s="5">
+        <v>3</v>
+      </c>
+      <c r="H11" s="5">
+        <v>3.1503569425352596</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>568.56194045923371</v>
+      </c>
+      <c r="M11" s="5">
+        <v>3</v>
+      </c>
+      <c r="N11" s="5">
+        <v>3.8430073469704586</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>3.5</v>
+      </c>
+      <c r="E12">
+        <v>345.2982659516573</v>
+      </c>
+      <c r="G12">
+        <v>3.5</v>
+      </c>
+      <c r="H12">
+        <v>1.2474843796370532</v>
+      </c>
+      <c r="J12">
+        <v>3.5</v>
+      </c>
+      <c r="K12">
+        <v>511.99518271841617</v>
+      </c>
+      <c r="M12">
+        <v>3.5</v>
+      </c>
+      <c r="N12">
+        <v>1.5530135790432551</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>293.45571592413972</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>0.49405826484885668</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <v>460.67077743340167</v>
+      </c>
+      <c r="M13">
+        <v>4</v>
+      </c>
+      <c r="N13">
+        <v>0.62741181747919905</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.959595959595962</v>
+      </c>
+      <c r="B14">
+        <v>517.94746792312196</v>
+      </c>
+      <c r="C14">
+        <v>160.13</v>
+      </c>
+      <c r="D14">
+        <v>4.5</v>
+      </c>
+      <c r="E14">
+        <v>249.32950238058066</v>
+      </c>
+      <c r="G14">
+        <v>4.5</v>
+      </c>
+      <c r="H14">
+        <v>0.19563602269422964</v>
+      </c>
+      <c r="J14">
+        <v>4.5</v>
+      </c>
+      <c r="K14">
+        <v>414.32957541698784</v>
+      </c>
+      <c r="M14">
+        <v>4.5</v>
+      </c>
+      <c r="N14">
+        <v>0.25356918442849635</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2.9797979797979801</v>
+      </c>
+      <c r="B15">
+        <v>89.615050194660597</v>
+      </c>
+      <c r="C15">
+        <v>13.51</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>211.81972917757562</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>7.7518318054201896E-2</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <v>372.5942219091387</v>
+      </c>
+      <c r="M15">
+        <v>5</v>
+      </c>
+      <c r="N15">
+        <v>0.10253838032712893</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>7.9292929292929299</v>
+      </c>
+      <c r="B16">
+        <v>57.796928841533195</v>
+      </c>
+      <c r="C16">
+        <v>11.11</v>
+      </c>
+      <c r="D16">
+        <v>5.5</v>
+      </c>
+      <c r="E16">
+        <v>179.95086910402966</v>
+      </c>
+      <c r="G16">
+        <v>5.5</v>
+      </c>
+      <c r="H16">
+        <v>3.0724180763125931E-2</v>
+      </c>
+      <c r="J16">
+        <v>5.5</v>
+      </c>
+      <c r="K16">
+        <v>334.89296635561561</v>
+      </c>
+      <c r="M16">
+        <v>5.5</v>
+      </c>
+      <c r="N16">
+        <v>4.1456039950140286E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14.8989898989899</v>
+      </c>
+      <c r="B17">
+        <v>26.826957952797198</v>
+      </c>
+      <c r="C17">
+        <v>9.11</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>152.87823660880039</v>
+      </c>
+      <c r="G17">
+        <v>6</v>
+      </c>
+      <c r="H17">
+        <v>1.2178621000728286E-2</v>
+      </c>
+      <c r="J17">
+        <v>6</v>
+      </c>
+      <c r="K17">
+        <v>300.92770790564037</v>
+      </c>
+      <c r="M17">
+        <v>6</v>
+      </c>
+      <c r="N17">
+        <v>1.6764550885686135E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>28.939393939393899</v>
+      </c>
+      <c r="B18">
+        <v>5.9948425031894104</v>
+      </c>
+      <c r="C18">
+        <v>1.56</v>
+      </c>
+      <c r="D18">
+        <v>6.5</v>
+      </c>
+      <c r="E18">
+        <v>129.87998226816927</v>
+      </c>
+      <c r="G18">
+        <v>6.5</v>
+      </c>
+      <c r="H18">
+        <v>4.8254488023082211E-3</v>
+      </c>
+      <c r="J18">
+        <v>6.5</v>
+      </c>
+      <c r="K18">
+        <v>270.26614774857427</v>
+      </c>
+      <c r="M18">
+        <v>6.5</v>
+      </c>
+      <c r="N18">
+        <v>6.7808603028545206E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>110.34240713189197</v>
+      </c>
+      <c r="G19">
+        <v>7</v>
+      </c>
+      <c r="H19">
+        <v>1.9121771498407387E-3</v>
+      </c>
+      <c r="J19">
+        <v>7</v>
+      </c>
+      <c r="K19">
+        <v>242.85839886318709</v>
+      </c>
+      <c r="M19">
+        <v>7</v>
+      </c>
+      <c r="N19">
+        <v>2.7414647309003015E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>7.5</v>
+      </c>
+      <c r="E20">
+        <v>93.741011796759793</v>
+      </c>
+      <c r="G20">
+        <v>7.5</v>
+      </c>
+      <c r="H20">
+        <v>7.5791435224626346E-4</v>
+      </c>
+      <c r="J20">
+        <v>7.5</v>
+      </c>
+      <c r="K20">
+        <v>218.05199207086542</v>
+      </c>
+      <c r="M20">
+        <v>7.5</v>
+      </c>
+      <c r="N20">
+        <v>1.1085702668303041E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>79.634674814343256</v>
+      </c>
+      <c r="G21">
+        <v>8</v>
+      </c>
+      <c r="H21">
+        <v>3.0040932824481871E-4</v>
+      </c>
+      <c r="J21">
+        <v>8</v>
+      </c>
+      <c r="K21">
+        <v>195.91334783307556</v>
+      </c>
+      <c r="M21">
+        <v>8</v>
+      </c>
+      <c r="N21">
+        <v>4.4842625751573333E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22">
+        <v>8.5</v>
+      </c>
+      <c r="E22">
+        <v>67.651090496877671</v>
+      </c>
+      <c r="G22">
+        <v>8.5</v>
+      </c>
+      <c r="H22">
+        <v>1.19030015674729E-4</v>
+      </c>
+      <c r="J22">
+        <v>8.5</v>
+      </c>
+      <c r="K22">
+        <v>175.84198486826455</v>
+      </c>
+      <c r="M22">
+        <v>8.5</v>
+      </c>
+      <c r="N22">
+        <v>1.8129344721242615E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>9</v>
+      </c>
+      <c r="E23">
+        <v>57.470826672947133</v>
+      </c>
+      <c r="G23">
+        <v>9</v>
+      </c>
+      <c r="H23">
+        <v>4.7168892822200482E-5</v>
+      </c>
+      <c r="J23">
+        <v>9</v>
+      </c>
+      <c r="K23">
+        <v>157.98576671699158</v>
+      </c>
+      <c r="M23">
+        <v>9</v>
+      </c>
+      <c r="N23">
+        <v>7.3306241010199434E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <v>59.2</v>
+      </c>
+      <c r="C24">
+        <v>12.24</v>
+      </c>
+      <c r="D24">
+        <v>9.5</v>
+      </c>
+      <c r="E24">
+        <v>48.82252229442966</v>
+      </c>
+      <c r="G24">
+        <v>9.5</v>
+      </c>
+      <c r="H24">
+        <v>1.86965964294086E-5</v>
+      </c>
+      <c r="J24">
+        <v>9.5</v>
+      </c>
+      <c r="K24">
+        <v>141.7820478604973</v>
+      </c>
+      <c r="M24">
+        <v>9.5</v>
+      </c>
+      <c r="N24">
+        <v>2.9651833718241859E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>14</v>
+      </c>
+      <c r="B25">
+        <v>4.7469999999999999</v>
+      </c>
+      <c r="C25">
+        <v>0.66</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>41.47564821610019</v>
+      </c>
+      <c r="G25">
+        <v>10</v>
+      </c>
+      <c r="H25">
+        <v>7.4101843794814349E-6</v>
+      </c>
+      <c r="J25">
+        <v>10</v>
+      </c>
+      <c r="K25">
+        <v>127.37438719186645</v>
+      </c>
+      <c r="M25">
+        <v>10</v>
+      </c>
+      <c r="N25">
+        <v>1.1989027475419702E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>3.5</v>
+      </c>
+      <c r="C26">
+        <v>0.84</v>
+      </c>
+      <c r="D26">
+        <v>10.5</v>
+      </c>
+      <c r="E26">
+        <v>35.234363005933503</v>
+      </c>
+      <c r="G26">
+        <v>10.5</v>
+      </c>
+      <c r="H26">
+        <v>2.936134987801901E-6</v>
+      </c>
+      <c r="J26">
+        <v>10.5</v>
+      </c>
+      <c r="K26">
+        <v>114.31300148673137</v>
+      </c>
+      <c r="M26">
+        <v>10.5</v>
+      </c>
+      <c r="N26">
+        <v>4.8475691988011655E-6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>11</v>
+      </c>
+      <c r="E27">
+        <v>29.932294303537159</v>
+      </c>
+      <c r="G27">
+        <v>11</v>
+      </c>
+      <c r="H27">
+        <v>1.1635488008071944E-6</v>
+      </c>
+      <c r="J27">
+        <v>11</v>
+      </c>
+      <c r="K27">
+        <v>102.68934528744977</v>
+      </c>
+      <c r="M27">
+        <v>11</v>
+      </c>
+      <c r="N27">
+        <v>1.9606455378470751E-6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>11.5</v>
+      </c>
+      <c r="E28">
+        <v>25.428105041871394</v>
+      </c>
+      <c r="G28">
+        <v>11.5</v>
+      </c>
+      <c r="H28">
+        <v>4.6121886385217497E-7</v>
+      </c>
+      <c r="J28">
+        <v>11.5</v>
+      </c>
+      <c r="K28">
+        <v>92.164246994447566</v>
+      </c>
+      <c r="M28">
+        <v>11.5</v>
+      </c>
+      <c r="N28">
+        <v>7.9284384350192522E-7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29">
+        <v>12</v>
+      </c>
+      <c r="E29">
+        <v>21.601726492187144</v>
+      </c>
+      <c r="G29">
+        <v>12</v>
+      </c>
+      <c r="H29">
+        <v>1.8278678965322756E-7</v>
+      </c>
+      <c r="J29">
+        <v>12</v>
+      </c>
+      <c r="K29">
+        <v>82.786601178244297</v>
+      </c>
+      <c r="M29">
+        <v>12</v>
+      </c>
+      <c r="N29">
+        <v>3.2056184057056972E-7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>12.5</v>
+      </c>
+      <c r="E30">
+        <v>18.351158022015806</v>
+      </c>
+      <c r="G30">
+        <v>12.5</v>
+      </c>
+      <c r="H30">
+        <v>7.2426302565662671E-8</v>
+      </c>
+      <c r="J30">
+        <v>12.5</v>
+      </c>
+      <c r="K30">
+        <v>74.306910214212607</v>
+      </c>
+      <c r="M30">
+        <v>12.5</v>
+      </c>
+      <c r="N30">
+        <v>1.2964467728007416E-7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2.7431372549019502</v>
+      </c>
+      <c r="B31">
+        <v>156</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31">
+        <v>13</v>
+      </c>
+      <c r="E31">
+        <v>15.589748266157704</v>
+      </c>
+      <c r="G31">
+        <v>13</v>
+      </c>
+      <c r="H31">
+        <v>2.8702184370667994E-8</v>
+      </c>
+      <c r="J31">
+        <v>13</v>
+      </c>
+      <c r="K31">
+        <v>66.740826869197107</v>
+      </c>
+      <c r="M31">
+        <v>13</v>
+      </c>
+      <c r="N31">
+        <v>5.2431552684681069E-8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>6.9617647058823504</v>
+      </c>
+      <c r="B32">
+        <v>87.3333333333333</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32">
+        <v>13.5</v>
+      </c>
+      <c r="E32">
+        <v>13.243885511542313</v>
+      </c>
+      <c r="G32">
+        <v>13.5</v>
+      </c>
+      <c r="H32">
+        <v>1.1377680614405248E-8</v>
+      </c>
+      <c r="J32">
+        <v>13.5</v>
+      </c>
+      <c r="K32">
+        <v>59.909997515309129</v>
+      </c>
+      <c r="M32">
+        <v>13.5</v>
+      </c>
+      <c r="N32">
+        <v>2.1198434576943977E-8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>13.957843137254899</v>
+      </c>
+      <c r="B33">
+        <v>30</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33">
+        <v>14</v>
+      </c>
+      <c r="E33">
+        <v>11.251035454096941</v>
+      </c>
+      <c r="G33">
+        <v>14</v>
+      </c>
+      <c r="H33">
+        <v>4.508798712156159E-9</v>
+      </c>
+      <c r="J33">
+        <v>14</v>
+      </c>
+      <c r="K33">
+        <v>53.804992050891038</v>
+      </c>
+      <c r="M33">
+        <v>14</v>
+      </c>
+      <c r="N33">
+        <v>8.5727016385656856E-9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>27.9470588235294</v>
+      </c>
+      <c r="B34">
+        <v>19.1404115825896</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34">
+        <v>14.5</v>
+      </c>
+      <c r="E34">
+        <v>9.5580743232528462</v>
+      </c>
+      <c r="G34">
+        <v>14.5</v>
+      </c>
+      <c r="H34">
+        <v>1.7865593546058596E-9</v>
+      </c>
+      <c r="J34">
+        <v>14.5</v>
+      </c>
+      <c r="K34">
+        <v>48.303054722390939</v>
+      </c>
+      <c r="M34">
+        <v>14.5</v>
+      </c>
+      <c r="N34">
+        <v>3.467357779670141E-9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>41.942156862745001</v>
+      </c>
+      <c r="B35">
+        <v>2.4221453287196901</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35">
+        <v>15</v>
+      </c>
+      <c r="E35">
+        <v>8.1198727532931709</v>
+      </c>
+      <c r="G35">
+        <v>15</v>
+      </c>
+      <c r="H35">
+        <v>7.0802208072899796E-10</v>
+      </c>
+      <c r="J35">
+        <v>15</v>
+      </c>
+      <c r="K35">
+        <v>43.376486349657704</v>
+      </c>
+      <c r="M35">
+        <v>15</v>
+      </c>
+      <c r="N35">
+        <v>1.4018429484693535E-9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>15.5</v>
+      </c>
+      <c r="E36">
+        <v>6.8980927920521369</v>
+      </c>
+      <c r="G36">
+        <v>15.5</v>
+      </c>
+      <c r="H36">
+        <v>2.8067431601868488E-10</v>
+      </c>
+      <c r="J36">
+        <v>15.5</v>
+      </c>
+      <c r="K36">
+        <v>38.945400411695957</v>
+      </c>
+      <c r="M36">
+        <v>15.5</v>
+      </c>
+      <c r="N36">
+        <v>5.6687524524914383E-10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>16</v>
+      </c>
+      <c r="E37">
+        <v>5.8601658990912373</v>
+      </c>
+      <c r="G37">
+        <v>16</v>
+      </c>
+      <c r="H37">
+        <v>1.1121854333614217E-10</v>
+      </c>
+      <c r="J37">
+        <v>16</v>
+      </c>
+      <c r="K37">
+        <v>34.969368007601986</v>
+      </c>
+      <c r="M37">
+        <v>16</v>
+      </c>
+      <c r="N37">
+        <v>2.2930050160658472E-10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38">
+        <v>16.5</v>
+      </c>
+      <c r="E38">
+        <v>4.9784247411809872</v>
+      </c>
+      <c r="G38">
+        <v>16.5</v>
+      </c>
+      <c r="H38">
+        <v>4.4069639004992101E-11</v>
+      </c>
+      <c r="J38">
+        <v>16.5</v>
+      </c>
+      <c r="K38">
+        <v>31.401095086958392</v>
+      </c>
+      <c r="M38">
+        <v>16.5</v>
+      </c>
+      <c r="N38">
+        <v>9.2703896587691599E-11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39">
+        <v>17</v>
+      </c>
+      <c r="E39">
+        <v>4.2293656294713298</v>
+      </c>
+      <c r="G39">
+        <v>17</v>
+      </c>
+      <c r="H39">
+        <v>1.7465468488964141E-11</v>
+      </c>
+      <c r="J39">
+        <v>17</v>
+      </c>
+      <c r="K39">
+        <v>28.191837561591633</v>
+      </c>
+      <c r="M39">
+        <v>17</v>
+      </c>
+      <c r="N39">
+        <v>3.7485508878071177E-11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>1471.7436403597401</v>
+      </c>
+      <c r="C40">
+        <v>79.8</v>
+      </c>
+      <c r="D40">
+        <v>17.5</v>
+      </c>
+      <c r="E40">
+        <v>3.5930219471455644</v>
+      </c>
+      <c r="G40">
+        <v>17.5</v>
+      </c>
+      <c r="H40">
+        <v>6.9239505144520583E-12</v>
+      </c>
+      <c r="J40">
+        <v>17.5</v>
+      </c>
+      <c r="K40">
+        <v>25.318681560232253</v>
+      </c>
+      <c r="M40">
+        <v>17.5</v>
+      </c>
+      <c r="N40">
+        <v>1.5163030485699799E-11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>0.84207459207458746</v>
+      </c>
+      <c r="B41">
+        <v>679.46616012253696</v>
+      </c>
+      <c r="C41">
+        <v>41.36</v>
+      </c>
+      <c r="D41" s="5">
+        <v>18</v>
+      </c>
+      <c r="E41" s="5">
+        <v>3.0524318739748422</v>
+      </c>
+      <c r="G41">
+        <v>18</v>
+      </c>
+      <c r="H41">
+        <v>2.7434303207687748E-12</v>
+      </c>
+      <c r="J41">
+        <v>18</v>
+      </c>
+      <c r="K41">
+        <v>22.728022391711978</v>
+      </c>
+      <c r="M41">
+        <v>18</v>
+      </c>
+      <c r="N41">
+        <v>6.1305458469702297E-12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>4.9206002331002088</v>
+      </c>
+      <c r="B42">
+        <v>334.56116246598299</v>
+      </c>
+      <c r="C42">
+        <v>37.07</v>
+      </c>
+      <c r="D42">
+        <v>18.5</v>
+      </c>
+      <c r="E42">
+        <v>2.59318618806468</v>
+      </c>
+      <c r="G42">
+        <v>18.5</v>
+      </c>
+      <c r="H42">
+        <v>1.0870825327678852E-12</v>
+      </c>
+      <c r="J42">
+        <v>18.5</v>
+      </c>
+      <c r="K42">
+        <v>20.414823480380491</v>
+      </c>
+      <c r="M42">
+        <v>18.5</v>
+      </c>
+      <c r="N42">
+        <v>2.478819199502123E-12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>14.004953379953376</v>
+      </c>
+      <c r="B43">
+        <v>127.31955290816499</v>
+      </c>
+      <c r="C43">
+        <v>18.670000000000002</v>
+      </c>
+      <c r="D43">
+        <v>19</v>
+      </c>
+      <c r="E43">
+        <v>2.2030441271810832</v>
+      </c>
+      <c r="G43">
+        <v>19</v>
+      </c>
+      <c r="H43">
+        <v>4.3083933162765089E-13</v>
+      </c>
+      <c r="J43">
+        <v>19</v>
+      </c>
+      <c r="K43">
+        <v>18.323271615338349</v>
+      </c>
+      <c r="M43">
+        <v>19</v>
+      </c>
+      <c r="N43">
+        <v>1.0026072313571253E-12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>30.129662004661999</v>
+      </c>
+      <c r="B44">
+        <v>32.3958597771421</v>
+      </c>
+      <c r="C44">
+        <v>5.58</v>
+      </c>
+      <c r="D44">
+        <v>19.5</v>
+      </c>
+      <c r="E44">
+        <v>1.8716070561913081</v>
+      </c>
+      <c r="G44">
+        <v>19.5</v>
+      </c>
+      <c r="H44">
+        <v>1.707954308721737E-13</v>
+      </c>
+      <c r="J44">
+        <v>19.5</v>
+      </c>
+      <c r="K44">
+        <v>16.46110507683175</v>
+      </c>
+      <c r="M44">
+        <v>19.5</v>
+      </c>
+      <c r="N44">
+        <v>4.0541733412778884E-13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>20</v>
+      </c>
+      <c r="E45">
+        <v>1.5900412141745892</v>
+      </c>
+      <c r="G45">
+        <v>20</v>
+      </c>
+      <c r="H45">
+        <v>6.655853648283429E-14</v>
+      </c>
+      <c r="J45">
+        <v>20</v>
+      </c>
+      <c r="K45">
+        <v>14.772293735682396</v>
+      </c>
+      <c r="M45">
+        <v>20</v>
+      </c>
+      <c r="N45">
+        <v>1.6391972478883639E-13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>20.5</v>
+      </c>
+      <c r="E46">
+        <v>1.3508421500120664</v>
+      </c>
+      <c r="G46">
+        <v>20.5</v>
+      </c>
+      <c r="H46">
+        <v>2.5597630022654511E-14</v>
+      </c>
+      <c r="J46">
+        <v>20.5</v>
+      </c>
+      <c r="K46">
+        <v>13.271392934612624</v>
+      </c>
+      <c r="M46">
+        <v>20.5</v>
+      </c>
+      <c r="N46">
+        <v>6.4774580401696297E-14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>21</v>
+      </c>
+      <c r="E47">
+        <v>1.1476344584685561</v>
+      </c>
+      <c r="G47">
+        <v>21</v>
+      </c>
+      <c r="H47">
+        <v>9.8418958707588747E-15</v>
+      </c>
+      <c r="J47">
+        <v>21</v>
+      </c>
+      <c r="K47">
+        <v>11.909590792489173</v>
+      </c>
+      <c r="M47">
+        <v>21</v>
+      </c>
+      <c r="N47">
+        <v>2.5579636183848545E-14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>21.5</v>
+      </c>
+      <c r="E48">
+        <v>0.97500361619636844</v>
+      </c>
+      <c r="G48">
+        <v>21.5</v>
+      </c>
+      <c r="H48">
+        <v>3.5691270635305638E-15</v>
+      </c>
+      <c r="J48">
+        <v>21.5</v>
+      </c>
+      <c r="K48">
+        <v>10.699014648671719</v>
+      </c>
+      <c r="M48">
+        <v>21.5</v>
+      </c>
+      <c r="N48">
+        <v>1.0066969277593977E-14</v>
+      </c>
+    </row>
+    <row r="49" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>22</v>
+      </c>
+      <c r="E49">
+        <v>0.82835145362829954</v>
+      </c>
+      <c r="G49">
+        <v>22</v>
+      </c>
+      <c r="H49">
+        <v>1.1464604488103078E-15</v>
+      </c>
+      <c r="J49">
+        <v>22</v>
+      </c>
+      <c r="K49">
+        <v>9.6017455753323055</v>
+      </c>
+      <c r="M49">
+        <v>22</v>
+      </c>
+      <c r="N49">
+        <v>3.5699445059767942E-15</v>
+      </c>
+    </row>
+    <row r="50" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>22.5</v>
+      </c>
+      <c r="E50">
+        <v>0.70375998340191892</v>
+      </c>
+      <c r="G50">
+        <v>22.5</v>
+      </c>
+      <c r="H50">
+        <v>3.1914501883661691E-16</v>
+      </c>
+      <c r="J50">
+        <v>22.5</v>
+      </c>
+      <c r="K50">
+        <v>8.6252417585659309</v>
+      </c>
+      <c r="M50">
+        <v>22.5</v>
+      </c>
+      <c r="N50">
+        <v>1.2354302624955999E-15</v>
+      </c>
+    </row>
+    <row r="51" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>23</v>
+      </c>
+      <c r="E51">
+        <v>0.59787540602631128</v>
+      </c>
+      <c r="G51">
+        <v>23</v>
+      </c>
+      <c r="H51">
+        <v>4.8175427089125124E-17</v>
+      </c>
+      <c r="J51">
+        <v>23</v>
+      </c>
+      <c r="K51">
+        <v>7.7412033855470996</v>
+      </c>
+      <c r="M51">
+        <v>23</v>
+      </c>
+      <c r="N51">
+        <v>4.4554079188340146E-16</v>
+      </c>
+    </row>
+    <row r="52" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>23.5</v>
+      </c>
+      <c r="E52">
+        <v>0.50792248090925063</v>
+      </c>
+      <c r="G52">
+        <v>23.5</v>
+      </c>
+      <c r="H52">
+        <v>-4.4683169699908069E-17</v>
+      </c>
+      <c r="J52">
+        <v>23.5</v>
+      </c>
+      <c r="K52">
+        <v>6.9534345161170181</v>
+      </c>
+      <c r="M52">
+        <v>23.5</v>
+      </c>
+      <c r="N52">
+        <v>1.6869895333875843E-16</v>
+      </c>
+    </row>
+    <row r="53" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>24</v>
+      </c>
+      <c r="E53">
+        <v>0.43150349883644379</v>
+      </c>
+      <c r="G53">
+        <v>24</v>
+      </c>
+      <c r="H53">
+        <v>-4.0389601781038524E-17</v>
+      </c>
+      <c r="J53">
+        <v>24</v>
+      </c>
+      <c r="K53">
+        <v>6.2412589289536395</v>
+      </c>
+      <c r="M53">
+        <v>24</v>
+      </c>
+      <c r="N53">
+        <v>6.1690463708252545E-17</v>
+      </c>
+    </row>
+    <row r="54" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>24.5</v>
+      </c>
+      <c r="E54">
+        <v>0.36658211808644386</v>
+      </c>
+      <c r="G54">
+        <v>24.5</v>
+      </c>
+      <c r="H54">
+        <v>-3.6096033862168979E-17</v>
+      </c>
+      <c r="J54">
+        <v>24.5</v>
+      </c>
+      <c r="K54">
+        <v>5.6056821467577613</v>
+      </c>
+      <c r="M54">
+        <v>24.5</v>
+      </c>
+      <c r="N54">
+        <v>3.3590954405645793E-17</v>
+      </c>
+    </row>
+    <row r="55" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <v>25</v>
+      </c>
+      <c r="E55">
+        <v>0.3114285099403673</v>
+      </c>
+      <c r="G55">
+        <v>25</v>
+      </c>
+      <c r="H55">
+        <v>-3.1802465943299274E-17</v>
+      </c>
+      <c r="J55">
+        <v>25</v>
+      </c>
+      <c r="K55">
+        <v>5.0320148238410018</v>
+      </c>
+      <c r="M55">
+        <v>25</v>
+      </c>
+      <c r="N55">
+        <v>5.491445103039102E-18</v>
+      </c>
+    </row>
+    <row r="56" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <v>25.5</v>
+      </c>
+      <c r="E56">
+        <v>0.26457309971794229</v>
+      </c>
+      <c r="G56">
+        <v>25.5</v>
+      </c>
+      <c r="H56">
+        <v>-2.7414962671103155E-17</v>
+      </c>
+      <c r="J56">
+        <v>25.5</v>
+      </c>
+      <c r="K56">
+        <v>4.5191736905669195</v>
+      </c>
+      <c r="M56">
+        <v>25.5</v>
+      </c>
+      <c r="N56">
+        <v>-6.3250390072960167E-18</v>
+      </c>
+    </row>
+    <row r="57" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <v>26</v>
+      </c>
+      <c r="E57">
+        <v>0.22476739442785201</v>
+      </c>
+      <c r="G57">
+        <v>26</v>
+      </c>
+      <c r="H57">
+        <v>-2.3024755284952089E-17</v>
+      </c>
+      <c r="J57">
+        <v>26</v>
+      </c>
+      <c r="K57">
+        <v>4.0571234351388563</v>
+      </c>
+      <c r="M57">
+        <v>26</v>
+      </c>
+      <c r="N57">
+        <v>-1.1635038911070126E-17</v>
+      </c>
+    </row>
+    <row r="58" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <v>26.5</v>
+      </c>
+      <c r="E58">
+        <v>0.19095072820399681</v>
+      </c>
+      <c r="G58">
+        <v>26.5</v>
+      </c>
+      <c r="H58">
+        <v>-1.8634547898801024E-17</v>
+      </c>
+      <c r="J58">
+        <v>26.5</v>
+      </c>
+      <c r="K58">
+        <v>3.6432719288942041</v>
+      </c>
+      <c r="M58">
+        <v>26.5</v>
+      </c>
+      <c r="N58">
+        <v>-1.6945038814844175E-17</v>
+      </c>
+    </row>
+    <row r="59" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <v>27</v>
+      </c>
+      <c r="E59">
+        <v>0.16222201031465655</v>
+      </c>
+      <c r="G59">
+        <v>27</v>
+      </c>
+      <c r="H59">
+        <v>-1.4244340512650244E-17</v>
+      </c>
+      <c r="J59">
+        <v>27</v>
+      </c>
+      <c r="K59">
+        <v>3.2711602299699756</v>
+      </c>
+      <c r="M59">
+        <v>27</v>
+      </c>
+      <c r="N59">
+        <v>-2.2255038718618269E-17</v>
+      </c>
+    </row>
+    <row r="60" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <v>27.5</v>
+      </c>
+      <c r="E60">
+        <v>0.13781572072587639</v>
+      </c>
+      <c r="G60">
+        <v>27.5</v>
+      </c>
+      <c r="H60">
+        <v>-9.8541331264992371E-18</v>
+      </c>
+      <c r="J60">
+        <v>27.5</v>
+      </c>
+      <c r="K60">
+        <v>2.9371542045524399</v>
+      </c>
+      <c r="M60">
+        <v>27.5</v>
+      </c>
+      <c r="N60">
+        <v>-2.7565038622392211E-17</v>
+      </c>
+    </row>
+    <row r="61" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D61">
+        <v>28</v>
+      </c>
+      <c r="E61">
+        <v>0.11708151503353888</v>
+      </c>
+      <c r="G61">
+        <v>28</v>
+      </c>
+      <c r="H61">
+        <v>-5.4639257403483069E-18</v>
+      </c>
+      <c r="J61" s="5">
+        <v>28</v>
+      </c>
+      <c r="K61" s="5">
+        <v>2.6375062595545922</v>
+      </c>
+      <c r="M61">
+        <v>28</v>
+      </c>
+      <c r="N61">
+        <v>-3.0814488492949515E-17</v>
+      </c>
+    </row>
+    <row r="62" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <v>28.5</v>
+      </c>
+      <c r="E62">
+        <v>9.9466896773497515E-2</v>
+      </c>
+      <c r="G62">
+        <v>28.5</v>
+      </c>
+      <c r="H62">
+        <v>-3.7961401277518804E-18</v>
+      </c>
+      <c r="J62">
+        <v>28.5</v>
+      </c>
+      <c r="K62">
+        <v>2.3679102932754645</v>
+      </c>
+      <c r="M62">
+        <v>28.5</v>
+      </c>
+      <c r="N62">
+        <v>-2.9128043677315847E-17</v>
+      </c>
+    </row>
+    <row r="63" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D63">
+        <v>29</v>
+      </c>
+      <c r="E63">
+        <v>8.4502496259652782E-2</v>
+      </c>
+      <c r="G63">
+        <v>29</v>
+      </c>
+      <c r="H63">
+        <v>-2.4816131143527577E-18</v>
+      </c>
+      <c r="J63">
+        <v>29</v>
+      </c>
+      <c r="K63">
+        <v>2.1266409545566471</v>
+      </c>
+      <c r="M63">
+        <v>29</v>
+      </c>
+      <c r="N63">
+        <v>-2.7441598861682179E-17</v>
+      </c>
+    </row>
+    <row r="64" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <v>29.5</v>
+      </c>
+      <c r="E64">
+        <v>7.1789564050789761E-2</v>
+      </c>
+      <c r="G64">
+        <v>29.5</v>
+      </c>
+      <c r="H64">
+        <v>-1.1670861009536293E-18</v>
+      </c>
+      <c r="J64">
+        <v>29.5</v>
+      </c>
+      <c r="K64">
+        <v>1.9090086152187324</v>
+      </c>
+      <c r="M64">
+        <v>29.5</v>
+      </c>
+      <c r="N64">
+        <v>-2.5755154046048514E-17</v>
+      </c>
+    </row>
+    <row r="65" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <v>30</v>
+      </c>
+      <c r="E65">
+        <v>6.0989345940158216E-2</v>
+      </c>
+      <c r="G65">
+        <v>30</v>
+      </c>
+      <c r="H65">
+        <v>1.4744091244549286E-19</v>
+      </c>
+      <c r="J65">
+        <v>30</v>
+      </c>
+      <c r="K65">
+        <v>1.7147656425111686</v>
+      </c>
+      <c r="M65">
+        <v>30</v>
+      </c>
+      <c r="N65">
+        <v>-2.4068709230414997E-17</v>
+      </c>
+    </row>
+    <row r="66" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <v>30.5</v>
+      </c>
+      <c r="E66">
+        <v>5.1814056427499151E-2</v>
+      </c>
+      <c r="G66">
+        <v>30.5</v>
+      </c>
+      <c r="H66">
+        <v>1.461967925844619E-18</v>
+      </c>
+      <c r="J66">
+        <v>30.5</v>
+      </c>
+      <c r="K66">
+        <v>1.539059561128465</v>
+      </c>
+      <c r="M66">
+        <v>30.5</v>
+      </c>
+      <c r="N66">
+        <v>-2.2382264414781333E-17</v>
+      </c>
+    </row>
+    <row r="67" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <v>31</v>
+      </c>
+      <c r="E67">
+        <v>4.4019210201953193E-2</v>
+      </c>
+      <c r="G67">
+        <v>31</v>
+      </c>
+      <c r="H67">
+        <v>2.7764949392437176E-18</v>
+      </c>
+      <c r="J67">
+        <v>31</v>
+      </c>
+      <c r="K67">
+        <v>1.3826939705984327</v>
+      </c>
+      <c r="M67">
+        <v>31</v>
+      </c>
+      <c r="N67">
+        <v>-2.0695819599147665E-17</v>
+      </c>
+    </row>
+    <row r="68" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>31.5</v>
+      </c>
+      <c r="E68">
+        <v>3.7397107338919662E-2</v>
+      </c>
+      <c r="G68">
+        <v>31.5</v>
+      </c>
+      <c r="H68">
+        <v>4.0910219526428703E-18</v>
+      </c>
+      <c r="J68">
+        <v>31.5</v>
+      </c>
+      <c r="K68">
+        <v>1.2408187999568892</v>
+      </c>
+      <c r="M68">
+        <v>31.5</v>
+      </c>
+      <c r="N68">
+        <v>-1.9009374783513852E-17</v>
+      </c>
+    </row>
+    <row r="69" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <v>32</v>
+      </c>
+      <c r="E69">
+        <v>3.1771298647940198E-2</v>
+      </c>
+      <c r="G69">
+        <v>32</v>
+      </c>
+      <c r="H69">
+        <v>5.405548966042008E-18</v>
+      </c>
+      <c r="J69">
+        <v>32</v>
+      </c>
+      <c r="K69">
+        <v>1.1147522140357278</v>
+      </c>
+      <c r="M69">
+        <v>32</v>
+      </c>
+      <c r="N69">
+        <v>-1.7259603197253135E-17</v>
+      </c>
+    </row>
+    <row r="70" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <v>32.5</v>
+      </c>
+      <c r="E70">
+        <v>2.6991883717898978E-2</v>
+      </c>
+      <c r="G70">
+        <v>32.5</v>
+      </c>
+      <c r="H70">
+        <v>5.3563927718952246E-18</v>
+      </c>
+      <c r="J70">
+        <v>32.5</v>
+      </c>
+      <c r="K70">
+        <v>1.000384354753844</v>
+      </c>
+      <c r="M70">
+        <v>32.5</v>
+      </c>
+      <c r="N70">
+        <v>-1.5358137031587113E-17</v>
+      </c>
+    </row>
+    <row r="71" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <v>33</v>
+      </c>
+      <c r="E71">
+        <v>2.2931516386964515E-2</v>
+      </c>
+      <c r="G71">
+        <v>33</v>
+      </c>
+      <c r="H71">
+        <v>5.1302864723952278E-18</v>
+      </c>
+      <c r="J71">
+        <v>33</v>
+      </c>
+      <c r="K71">
+        <v>0.89870093327673461</v>
+      </c>
+      <c r="M71">
+        <v>33</v>
+      </c>
+      <c r="N71">
+        <v>-1.3456670865920986E-17</v>
+      </c>
+    </row>
+    <row r="72" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D72">
+        <v>33.5</v>
+      </c>
+      <c r="E72">
+        <v>1.9482011209321554E-2</v>
+      </c>
+      <c r="G72">
+        <v>33.5</v>
+      </c>
+      <c r="H72">
+        <v>4.9041801728952156E-18</v>
+      </c>
+      <c r="J72">
+        <v>33.5</v>
+      </c>
+      <c r="K72">
+        <v>0.80654942346139691</v>
+      </c>
+      <c r="M72">
+        <v>33.5</v>
+      </c>
+      <c r="N72">
+        <v>-1.1555204700255006E-17</v>
+      </c>
+    </row>
+    <row r="73" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D73">
+        <v>34</v>
+      </c>
+      <c r="E73">
+        <v>1.6551460500893327E-2</v>
+      </c>
+      <c r="G73">
+        <v>34</v>
+      </c>
+      <c r="H73">
+        <v>4.6780738733951888E-18</v>
+      </c>
+      <c r="J73">
+        <v>34</v>
+      </c>
+      <c r="K73">
+        <v>0.72452453965439334</v>
+      </c>
+      <c r="M73">
+        <v>34</v>
+      </c>
+      <c r="N73">
+        <v>-9.653738534588967E-18</v>
+      </c>
+    </row>
+    <row r="74" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D74">
+        <v>34.5</v>
+      </c>
+      <c r="E74">
+        <v>1.4061785148221153E-2</v>
+      </c>
+      <c r="G74">
+        <v>34.5</v>
+      </c>
+      <c r="H74">
+        <v>4.4519675738951621E-18</v>
+      </c>
+      <c r="J74">
+        <v>34.5</v>
+      </c>
+      <c r="K74">
+        <v>0.65028032771805711</v>
+      </c>
+      <c r="M74">
+        <v>34.5</v>
+      </c>
+      <c r="N74">
+        <v>-7.7522723689229277E-18</v>
+      </c>
+    </row>
+    <row r="75" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D75">
+        <v>35</v>
+      </c>
+      <c r="E75">
+        <v>1.1946653920631743E-2</v>
+      </c>
+      <c r="G75">
+        <v>35</v>
+      </c>
+      <c r="H75">
+        <v>4.2258612743950906E-18</v>
+      </c>
+      <c r="J75">
+        <v>35</v>
+      </c>
+      <c r="K75">
+        <v>0.58410642917929978</v>
+      </c>
+      <c r="M75">
+        <v>35</v>
+      </c>
+      <c r="N75">
+        <v>-5.8508062032568884E-18</v>
+      </c>
+    </row>
+    <row r="76" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D76">
+        <v>35.5</v>
+      </c>
+      <c r="E76">
+        <v>1.0149715843512503E-2</v>
+      </c>
+      <c r="G76">
+        <v>35.5</v>
+      </c>
+      <c r="H76">
+        <v>3.9997549748951231E-18</v>
+      </c>
+      <c r="J76">
+        <v>35.5</v>
+      </c>
+      <c r="K76">
+        <v>0.52429521754652253</v>
+      </c>
+      <c r="M76">
+        <v>35.5</v>
+      </c>
+      <c r="N76" s="1">
+        <v>-3.9493400375908199E-18</v>
+      </c>
+    </row>
+    <row r="77" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D77">
+        <v>36</v>
+      </c>
+      <c r="E77">
+        <v>8.6230985313490612E-3</v>
+      </c>
+      <c r="G77">
+        <v>36</v>
+      </c>
+      <c r="H77">
+        <v>3.7736486753951418E-18</v>
+      </c>
+      <c r="J77">
+        <v>36</v>
+      </c>
+      <c r="K77">
+        <v>0.47090352577189021</v>
+      </c>
+      <c r="M77">
+        <v>36</v>
+      </c>
+      <c r="N77" s="1">
+        <v>-2.4284615411347784E-18</v>
+      </c>
+    </row>
+    <row r="78" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D78">
+        <v>36.5</v>
+      </c>
+      <c r="E78">
+        <v>7.3261324653312171E-3</v>
+      </c>
+      <c r="G78">
+        <v>36.5</v>
+      </c>
+      <c r="H78">
+        <v>3.4157127064611271E-18</v>
+      </c>
+      <c r="J78">
+        <v>36.5</v>
+      </c>
+      <c r="K78">
+        <v>0.42272420984129583</v>
+      </c>
+      <c r="M78">
+        <v>36.5</v>
+      </c>
+      <c r="N78" s="1">
+        <v>-1.8192525619438517E-18</v>
+      </c>
+    </row>
+    <row r="79" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D79">
+        <v>37</v>
+      </c>
+      <c r="E79">
+        <v>6.2242672204825952E-3</v>
+      </c>
+      <c r="G79">
+        <v>37</v>
+      </c>
+      <c r="H79">
+        <v>3.0406706576356693E-18</v>
+      </c>
+      <c r="J79">
+        <v>37</v>
+      </c>
+      <c r="K79">
+        <v>0.37964109531505053</v>
+      </c>
+      <c r="M79">
+        <v>37</v>
+      </c>
+      <c r="N79" s="1">
+        <v>-1.2100435827529847E-18</v>
+      </c>
+    </row>
+    <row r="80" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D80">
+        <v>37.5</v>
+      </c>
+      <c r="E80">
+        <v>5.2881507617920853E-3</v>
+      </c>
+      <c r="G80">
+        <v>37.5</v>
+      </c>
+      <c r="H80">
+        <v>2.6656286088101368E-18</v>
+      </c>
+      <c r="J80">
+        <v>37.5</v>
+      </c>
+      <c r="K80">
+        <v>0.34083541998754857</v>
+      </c>
+      <c r="M80">
+        <v>37.5</v>
+      </c>
+      <c r="N80" s="1">
+        <v>-6.0083460356208461E-19</v>
+      </c>
+    </row>
+    <row r="81" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D81">
+        <v>38</v>
+      </c>
+      <c r="E81">
+        <v>4.4926015174908589E-3</v>
+      </c>
+      <c r="G81">
+        <v>38</v>
+      </c>
+      <c r="H81">
+        <v>2.2905865599846643E-18</v>
+      </c>
+      <c r="J81">
+        <v>38</v>
+      </c>
+      <c r="K81">
+        <v>0.30606675237330233</v>
+      </c>
+      <c r="M81">
+        <v>38</v>
+      </c>
+      <c r="N81" s="1">
+        <v>8.3743756288099361E-21</v>
+      </c>
+    </row>
+    <row r="82" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D82">
+        <v>38.5</v>
+      </c>
+      <c r="E82">
+        <v>3.8166698046787073E-3</v>
+      </c>
+      <c r="G82">
+        <v>38.5</v>
+      </c>
+      <c r="H82">
+        <v>1.9155445111591468E-18</v>
+      </c>
+      <c r="J82">
+        <v>38.5</v>
+      </c>
+      <c r="K82">
+        <v>0.27481421002055012</v>
+      </c>
+      <c r="M82">
+        <v>38.5</v>
+      </c>
+      <c r="N82" s="1">
+        <v>6.1758335481970643E-19</v>
+      </c>
+    </row>
+    <row r="83" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D83">
+        <v>39</v>
+      </c>
+      <c r="E83">
+        <v>3.2424352574419741E-3</v>
+      </c>
+      <c r="G83">
+        <v>39</v>
+      </c>
+      <c r="H83">
+        <v>1.540502462333674E-18</v>
+      </c>
+      <c r="J83">
+        <v>39</v>
+      </c>
+      <c r="K83">
+        <v>0.24675225536524611</v>
+      </c>
+      <c r="M83">
+        <v>39</v>
+      </c>
+      <c r="N83" s="1">
+        <v>1.2267923340106049E-18</v>
+      </c>
+    </row>
+    <row r="84" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D84">
+        <v>39.5</v>
+      </c>
+      <c r="E84">
+        <v>2.7545974088063587E-3</v>
+      </c>
+      <c r="G84">
+        <v>39.5</v>
+      </c>
+      <c r="H84">
+        <v>1.1654604135081925E-18</v>
+      </c>
+      <c r="J84">
+        <v>39.5</v>
+      </c>
+      <c r="K84">
+        <v>0.22158534015654596</v>
+      </c>
+      <c r="M84">
+        <v>39.5</v>
+      </c>
+      <c r="N84" s="1">
+        <v>1.8360013132015007E-18</v>
+      </c>
+    </row>
+    <row r="85" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D85">
+        <v>40</v>
+      </c>
+      <c r="E85">
+        <v>2.3401576578003201E-3</v>
+      </c>
+      <c r="G85">
+        <v>40</v>
+      </c>
+      <c r="H85">
+        <v>7.9041836468269288E-19</v>
+      </c>
+      <c r="J85">
+        <v>40</v>
+      </c>
+      <c r="K85">
+        <v>0.19893377980023624</v>
+      </c>
+      <c r="M85">
+        <v>40</v>
+      </c>
+      <c r="N85" s="1">
+        <v>2.2430987875632666E-18</v>
+      </c>
+    </row>
+    <row r="86" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="N86" s="1"/>
+    </row>
+    <row r="87" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="N87" s="1"/>
+    </row>
+    <row r="88" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="N88" s="1"/>
+    </row>
+    <row r="89" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="N89" s="1"/>
+    </row>
+    <row r="90" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="N90" s="1"/>
+    </row>
+    <row r="91" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="N91" s="1"/>
+    </row>
+    <row r="92" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="N92" s="1"/>
+    </row>
+    <row r="93" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="N93" s="1"/>
+    </row>
+    <row r="94" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="N94" s="1"/>
+    </row>
+    <row r="95" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="N95" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="M3:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
